--- a/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.39</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.73</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,25 +596,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008856</t>
+          <t>167301</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+          <t>方正富邦中证保险主题指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.83</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>167301</t>
+          <t>008856</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -764,4 +765,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6418</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
@@ -915,14 +1010,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.39</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="4">
@@ -931,14 +1026,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="5">
@@ -947,13 +1042,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8648</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1105,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -1026,14 +1121,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.39</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="5">
@@ -1042,14 +1137,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="6">
@@ -1058,13 +1153,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>167301</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2349</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -611,64 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>54.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2184</t>
+          <t>0.8648</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008856</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>38.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -743,22 +743,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.05</t>
+          <t>58.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3922</t>
+          <t>0.8767</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -891,7 +891,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -931,22 +931,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.06</t>
+          <t>29.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8767</t>
+          <t>0.3922</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -964,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,7 +985,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1025,26 +1025,64 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.05</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8648</t>
+          <t>0.2184</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1058,128 +1096,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.23</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
+++ b/数据整理/stocks/A股/深证主板/000627-天茂集团.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.86</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.39</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>167301</t>
+          <t>004495</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>方正富邦中证保险主题指数（LOF）</t>
+          <t>博时量化平衡混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.05</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>37.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8648</t>
+          <t>0.0405</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -743,22 +760,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.06</t>
+          <t>54.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8767</t>
+          <t>0.8648</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -797,7 +814,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -837,26 +854,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.66</t>
+          <t>58.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6418</t>
+          <t>0.8767</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -931,26 +948,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.05</t>
+          <t>43.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3922</t>
+          <t>0.6418</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -959,6 +976,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1090,7 +1201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
